--- a/raw_data/20200818_saline/20200818_Sensor1_Test_68.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_68.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5EE90-4E95-4A8A-976E-DAC47E6ECF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>60488.532575</v>
+        <v>60488.532574999997</v>
       </c>
       <c r="B2" s="1">
-        <v>16.802370</v>
+        <v>16.80237</v>
       </c>
       <c r="C2" s="1">
-        <v>900.340000</v>
+        <v>900.34</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.375000</v>
+        <v>-198.375</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>60498.939888</v>
+        <v>60498.939888000001</v>
       </c>
       <c r="G2" s="1">
-        <v>16.805261</v>
+        <v>16.805261000000002</v>
       </c>
       <c r="H2" s="1">
-        <v>917.626000</v>
+        <v>917.62599999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.690000</v>
+        <v>-167.69</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>60509.019826</v>
+        <v>60509.019826000003</v>
       </c>
       <c r="L2" s="1">
-        <v>16.808061</v>
+        <v>16.808060999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.828000</v>
+        <v>939.82799999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.127000</v>
+        <v>-119.127</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>60519.523637</v>
+        <v>60519.523636999998</v>
       </c>
       <c r="Q2" s="1">
         <v>16.810979</v>
       </c>
       <c r="R2" s="1">
-        <v>946.536000</v>
+        <v>946.53599999999994</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.091000</v>
+        <v>-103.09099999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>60530.090870</v>
+        <v>60530.09087</v>
       </c>
       <c r="V2" s="1">
         <v>16.813914</v>
       </c>
       <c r="W2" s="1">
-        <v>953.181000</v>
+        <v>953.18100000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.258100</v>
+        <v>-88.258099999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>60540.578813</v>
@@ -556,527 +972,527 @@
         <v>16.816827</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.250000</v>
+        <v>960.25</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.921500</v>
+        <v>-76.921499999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>60551.141580</v>
+        <v>60551.141580000003</v>
       </c>
       <c r="AF2" s="1">
-        <v>16.819762</v>
+        <v>16.819762000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.059000</v>
+        <v>965.05899999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.869600</v>
+        <v>-74.869600000000005</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>60561.597245</v>
+        <v>60561.597244999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>16.822666</v>
+        <v>16.822666000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.300000</v>
+        <v>972.3</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.696900</v>
+        <v>-79.696899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>60572.173962</v>
+        <v>60572.173962000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>16.825604</v>
+        <v>16.825603999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>980.488000</v>
+        <v>980.48800000000006</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.370600</v>
+        <v>-91.370599999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>60583.482722</v>
+        <v>60583.482722000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.828745</v>
+        <v>16.828745000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.551000</v>
+        <v>990.55100000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.210000</v>
+        <v>-109.21</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>60594.570291</v>
+        <v>60594.570291000004</v>
       </c>
       <c r="AZ2" s="1">
-        <v>16.831825</v>
+        <v>16.831824999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>998.984000</v>
+        <v>998.98400000000004</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.867000</v>
+        <v>-124.867</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>60605.944546</v>
+        <v>60605.944545999999</v>
       </c>
       <c r="BE2" s="1">
         <v>16.834985</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.591000</v>
+        <v>-196.59100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>60616.935929</v>
+        <v>60616.935928999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>16.838038</v>
+        <v>16.838038000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL2" s="1">
-        <v>-312.135000</v>
+        <v>-312.13499999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>60628.348838</v>
+        <v>60628.348837999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>16.841208</v>
+        <v>16.841208000000002</v>
       </c>
       <c r="BP2" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-493.086000</v>
+        <v>-493.08600000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>60639.410131</v>
+        <v>60639.410130999997</v>
       </c>
       <c r="BT2" s="1">
-        <v>16.844281</v>
+        <v>16.844280999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1337.090000</v>
+        <v>1337.09</v>
       </c>
       <c r="BV2" s="1">
-        <v>-690.582000</v>
+        <v>-690.58199999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>60649.816185</v>
+        <v>60649.816185000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>16.847171</v>
+        <v>16.847170999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1473.290000</v>
+        <v>1473.29</v>
       </c>
       <c r="CA2" s="1">
-        <v>-900.582000</v>
+        <v>-900.58199999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>60660.925135</v>
+        <v>60660.925134999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>16.850257</v>
+        <v>16.850256999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1826.830000</v>
+        <v>1826.83</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1397.120000</v>
+        <v>-1397.12</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>60488.910558</v>
+        <v>60488.910558000003</v>
       </c>
       <c r="B3" s="1">
-        <v>16.802475</v>
+        <v>16.802475000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>900.342000</v>
+        <v>900.34199999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.270000</v>
+        <v>-198.27</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>60499.362223</v>
+        <v>60499.362222999996</v>
       </c>
       <c r="G3" s="1">
-        <v>16.805378</v>
+        <v>16.805378000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>917.751000</v>
+        <v>917.75099999999998</v>
       </c>
       <c r="I3" s="1">
-        <v>-167.761000</v>
+        <v>-167.761</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>60509.451381</v>
+        <v>60509.451380999999</v>
       </c>
       <c r="L3" s="1">
-        <v>16.808181</v>
+        <v>16.808181000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>939.931000</v>
+        <v>939.93100000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.070000</v>
+        <v>-119.07</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>60519.939748</v>
+        <v>60519.939747999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>16.811094</v>
+        <v>16.811094000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>946.537000</v>
+        <v>946.53700000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.037000</v>
+        <v>-103.03700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>60530.491142</v>
+        <v>60530.491141999999</v>
       </c>
       <c r="V3" s="1">
-        <v>16.814025</v>
+        <v>16.814025000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>953.162000</v>
+        <v>953.16200000000003</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.268800</v>
+        <v>-88.268799999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>60540.941850</v>
+        <v>60540.941850000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>16.816928</v>
+        <v>16.816928000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.302000</v>
+        <v>960.30200000000002</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.966400</v>
+        <v>-76.966399999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>60551.523004</v>
+        <v>60551.523004000002</v>
       </c>
       <c r="AF3" s="1">
         <v>16.819868</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.922000</v>
+        <v>964.92200000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.821900</v>
+        <v>-74.821899999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>60561.985160</v>
+        <v>60561.985159999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>16.822774</v>
+        <v>16.822773999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.310000</v>
+        <v>972.31</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.685700</v>
+        <v>-79.685699999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>60572.922431</v>
+        <v>60572.922430999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>16.825812</v>
+        <v>16.825811999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>980.474000</v>
+        <v>980.47400000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.387700</v>
+        <v>-91.387699999999995</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>60583.868640</v>
+        <v>60583.868640000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>16.828852</v>
+        <v>16.828852000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.554000</v>
+        <v>990.55399999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.185000</v>
+        <v>-109.185</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>60594.977009</v>
+        <v>60594.977009000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>16.831938</v>
+        <v>16.831938000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>998.969000</v>
+        <v>998.96900000000005</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.863000</v>
+        <v>-124.863</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>60606.310134</v>
+        <v>60606.310133999999</v>
       </c>
       <c r="BE3" s="1">
         <v>16.835086</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.621000</v>
+        <v>-196.62100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>60617.661541</v>
+        <v>60617.661541000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>16.838239</v>
+        <v>16.838239000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL3" s="1">
-        <v>-312.168000</v>
+        <v>-312.16800000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>60629.074484</v>
+        <v>60629.074483999997</v>
       </c>
       <c r="BO3" s="1">
-        <v>16.841410</v>
+        <v>16.84141</v>
       </c>
       <c r="BP3" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-493.160000</v>
+        <v>-493.16</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>60639.558954</v>
       </c>
       <c r="BT3" s="1">
-        <v>16.844322</v>
+        <v>16.844321999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1337.090000</v>
+        <v>1337.09</v>
       </c>
       <c r="BV3" s="1">
-        <v>-690.619000</v>
+        <v>-690.61900000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>60650.306728</v>
+        <v>60650.306728000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>16.847307</v>
+        <v>16.847307000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1473.370000</v>
+        <v>1473.37</v>
       </c>
       <c r="CA3" s="1">
-        <v>-900.751000</v>
+        <v>-900.75099999999998</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>60661.486057</v>
+        <v>60661.486057000002</v>
       </c>
       <c r="CD3" s="1">
         <v>16.850413</v>
       </c>
       <c r="CE3" s="1">
-        <v>1828.250000</v>
+        <v>1828.25</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1396.880000</v>
+        <v>-1396.88</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>60489.335101</v>
+        <v>60489.335100999997</v>
       </c>
       <c r="B4" s="1">
-        <v>16.802593</v>
+        <v>16.802593000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>900.308000</v>
+        <v>900.30799999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.353000</v>
+        <v>-198.35300000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>60499.629071</v>
+        <v>60499.629071000003</v>
       </c>
       <c r="G4" s="1">
         <v>16.805453</v>
       </c>
       <c r="H4" s="1">
-        <v>917.696000</v>
+        <v>917.69600000000003</v>
       </c>
       <c r="I4" s="1">
-        <v>-167.633000</v>
+        <v>-167.63300000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>60509.786641</v>
+        <v>60509.786640999999</v>
       </c>
       <c r="L4" s="1">
-        <v>16.808274</v>
+        <v>16.808274000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>939.951000</v>
+        <v>939.95100000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.021000</v>
+        <v>-119.021</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>60520.293396</v>
+        <v>60520.293396000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>16.811193</v>
+        <v>16.811192999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>946.547000</v>
+        <v>946.54700000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.013000</v>
+        <v>-103.01300000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>60530.845782</v>
+        <v>60530.845781999997</v>
       </c>
       <c r="V4" s="1">
         <v>16.814124</v>
       </c>
       <c r="W4" s="1">
-        <v>953.138000</v>
+        <v>953.13800000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.200200</v>
+        <v>-88.200199999999995</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>60541.288552</v>
+        <v>60541.288551999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>16.817025</v>
+        <v>16.817025000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.248000</v>
+        <v>960.24800000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.941800</v>
+        <v>-76.941800000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>60552.209466</v>
@@ -1085,375 +1501,375 @@
         <v>16.820058</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.981000</v>
+        <v>964.98099999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.981100</v>
+        <v>-74.981099999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>60562.682524</v>
+        <v>60562.682524000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>16.822967</v>
+        <v>16.822966999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.297000</v>
+        <v>972.29700000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.665200</v>
+        <v>-79.665199999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>60573.283346</v>
+        <v>60573.283345999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>16.825912</v>
+        <v>16.825911999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>980.491000</v>
+        <v>980.49099999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.411400</v>
+        <v>-91.4114</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>60584.235683</v>
+        <v>60584.235682999999</v>
       </c>
       <c r="AU4" s="1">
         <v>16.828954</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.563000</v>
+        <v>990.56299999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.202000</v>
+        <v>-109.202</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>60595.336112</v>
+        <v>60595.336111999997</v>
       </c>
       <c r="AZ4" s="1">
-        <v>16.832038</v>
+        <v>16.832038000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>998.972000</v>
+        <v>998.97199999999998</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.862000</v>
+        <v>-124.86199999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>60606.971762</v>
+        <v>60606.971762000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>16.835270</v>
+        <v>16.835270000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.320000</v>
+        <v>1038.32</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.602000</v>
+        <v>-196.602</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>60618.093059</v>
+        <v>60618.093058999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>16.838359</v>
+        <v>16.838359000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL4" s="1">
-        <v>-312.188000</v>
+        <v>-312.18799999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>60629.185091</v>
+        <v>60629.185090999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>16.841440</v>
+        <v>16.841439999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-493.132000</v>
+        <v>-493.13200000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>60639.970135</v>
+        <v>60639.970135000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>16.844436</v>
+        <v>16.844436000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>1337.030000</v>
+        <v>1337.03</v>
       </c>
       <c r="BV4" s="1">
-        <v>-690.664000</v>
+        <v>-690.66399999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>60650.742215</v>
+        <v>60650.742214999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>16.847428</v>
+        <v>16.847428000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1473.300000</v>
+        <v>1473.3</v>
       </c>
       <c r="CA4" s="1">
-        <v>-900.754000</v>
+        <v>-900.75400000000002</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>60662.022728</v>
+        <v>60662.022728000004</v>
       </c>
       <c r="CD4" s="1">
         <v>16.850562</v>
       </c>
       <c r="CE4" s="1">
-        <v>1826.710000</v>
+        <v>1826.71</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1396.350000</v>
+        <v>-1396.35</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>60489.599964</v>
+        <v>60489.599964000001</v>
       </c>
       <c r="B5" s="1">
         <v>16.802667</v>
       </c>
       <c r="C5" s="1">
-        <v>900.399000</v>
+        <v>900.399</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.269000</v>
+        <v>-198.26900000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>60499.973160</v>
+        <v>60499.973160000001</v>
       </c>
       <c r="G5" s="1">
-        <v>16.805548</v>
+        <v>16.805548000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>917.834000</v>
+        <v>917.83399999999995</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.812000</v>
+        <v>-167.81200000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>60510.132849</v>
+        <v>60510.132849000001</v>
       </c>
       <c r="L5" s="1">
-        <v>16.808370</v>
+        <v>16.80837</v>
       </c>
       <c r="M5" s="1">
-        <v>939.814000</v>
+        <v>939.81399999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.158000</v>
+        <v>-119.158</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>60520.640126</v>
+        <v>60520.640125999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>16.811289</v>
+        <v>16.811288999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>946.615000</v>
+        <v>946.61500000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.990000</v>
+        <v>-102.99</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>60531.178630</v>
+        <v>60531.178630000002</v>
       </c>
       <c r="V5" s="1">
-        <v>16.814216</v>
+        <v>16.814215999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>953.183000</v>
+        <v>953.18299999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.222000</v>
+        <v>-88.221999999999994</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>60541.991879</v>
+        <v>60541.991879000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>16.817220</v>
+        <v>16.817219999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.246000</v>
+        <v>960.24599999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.903700</v>
+        <v>-76.903700000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>60552.552729</v>
+        <v>60552.552729000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>16.820154</v>
+        <v>16.820153999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.960000</v>
+        <v>964.96</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.896500</v>
+        <v>-74.896500000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>60563.030187</v>
+        <v>60563.030186999997</v>
       </c>
       <c r="AK5" s="1">
-        <v>16.823064</v>
+        <v>16.823063999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.324000</v>
+        <v>972.32399999999996</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.687600</v>
+        <v>-79.687600000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>60573.643613</v>
       </c>
       <c r="AP5" s="1">
-        <v>16.826012</v>
+        <v>16.826011999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>980.512000</v>
+        <v>980.51199999999994</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.414200</v>
+        <v>-91.414199999999994</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>60584.905774</v>
+        <v>60584.905773999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>16.829140</v>
+        <v>16.829139999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>990.575000</v>
+        <v>990.57500000000005</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.194000</v>
+        <v>-109.194</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>60596.015137</v>
+        <v>60596.015137000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>16.832226</v>
+        <v>16.832225999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>998.974000</v>
+        <v>998.97400000000005</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.874000</v>
+        <v>-124.874</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>60607.422129</v>
+        <v>60607.422128999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>16.835395</v>
+        <v>16.835394999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.604000</v>
+        <v>-196.60400000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>60618.469026</v>
+        <v>60618.469025999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>16.838464</v>
+        <v>16.838463999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.950000</v>
+        <v>1105.95</v>
       </c>
       <c r="BL5" s="1">
-        <v>-312.165000</v>
+        <v>-312.16500000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>60629.613141</v>
+        <v>60629.613141000002</v>
       </c>
       <c r="BO5" s="1">
         <v>16.841559</v>
       </c>
       <c r="BP5" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-493.117000</v>
+        <v>-493.11700000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>60640.397654</v>
@@ -1462,936 +1878,936 @@
         <v>16.844555</v>
       </c>
       <c r="BU5" s="1">
-        <v>1337.120000</v>
+        <v>1337.12</v>
       </c>
       <c r="BV5" s="1">
-        <v>-690.769000</v>
+        <v>-690.76900000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>60651.196550</v>
+        <v>60651.196550000001</v>
       </c>
       <c r="BY5" s="1">
         <v>16.847555</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1473.390000</v>
+        <v>1473.39</v>
       </c>
       <c r="CA5" s="1">
-        <v>-900.621000</v>
+        <v>-900.62099999999998</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>60662.567337</v>
       </c>
       <c r="CD5" s="1">
-        <v>16.850713</v>
+        <v>16.850712999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1828.030000</v>
+        <v>1828.03</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1397.700000</v>
+        <v>-1397.7</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>60489.934268</v>
+        <v>60489.934267999997</v>
       </c>
       <c r="B6" s="1">
-        <v>16.802760</v>
+        <v>16.802759999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>900.256000</v>
+        <v>900.25599999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.359000</v>
+        <v>-198.35900000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>60500.317023</v>
+        <v>60500.317023000003</v>
       </c>
       <c r="G6" s="1">
-        <v>16.805644</v>
+        <v>16.805644000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>917.974000</v>
+        <v>917.97400000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.629000</v>
+        <v>-167.62899999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>60510.476578</v>
+        <v>60510.476578000002</v>
       </c>
       <c r="L6" s="1">
-        <v>16.808466</v>
+        <v>16.808465999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>939.881000</v>
+        <v>939.88099999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.145000</v>
+        <v>-119.145</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>60521.335987</v>
+        <v>60521.335986999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>16.811482</v>
+        <v>16.811482000000002</v>
       </c>
       <c r="R6" s="1">
-        <v>946.597000</v>
+        <v>946.59699999999998</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.068000</v>
+        <v>-103.068</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>60531.897798</v>
+        <v>60531.897797999998</v>
       </c>
       <c r="V6" s="1">
-        <v>16.814416</v>
+        <v>16.814416000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>953.097000</v>
+        <v>953.09699999999998</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.231800</v>
+        <v>-88.231800000000007</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>60542.335112</v>
+        <v>60542.335112000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>16.817315</v>
+        <v>16.817315000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.214000</v>
+        <v>960.21400000000006</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.949400</v>
+        <v>-76.949399999999997</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>60552.896451</v>
+        <v>60552.896451000001</v>
       </c>
       <c r="AF6" s="1">
         <v>16.820249</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.021000</v>
+        <v>965.02099999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.860700</v>
+        <v>-74.860699999999994</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>60563.381355</v>
+        <v>60563.381354999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>16.823161</v>
+        <v>16.823160999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.308000</v>
+        <v>972.30799999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.677400</v>
+        <v>-79.677400000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>60574.321613</v>
       </c>
       <c r="AP6" s="1">
-        <v>16.826200</v>
+        <v>16.8262</v>
       </c>
       <c r="AQ6" s="1">
-        <v>980.487000</v>
+        <v>980.48699999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.401200</v>
+        <v>-91.401200000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>60585.329327</v>
+        <v>60585.329326999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>16.829258</v>
+        <v>16.829257999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.563000</v>
+        <v>990.56299999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.198000</v>
+        <v>-109.19799999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>60596.414415</v>
+        <v>60596.414414999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>16.832337</v>
+        <v>16.832336999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>998.958000</v>
+        <v>998.95799999999997</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.860000</v>
+        <v>-124.86</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>60607.783252</v>
+        <v>60607.783252000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>16.835495</v>
+        <v>16.835495000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.300000</v>
+        <v>1038.3</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.620000</v>
+        <v>-196.62</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>60618.844530</v>
+        <v>60618.844530000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>16.838568</v>
+        <v>16.838567999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL6" s="1">
-        <v>-312.171000</v>
+        <v>-312.17099999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>60630.006962</v>
+        <v>60630.006961999999</v>
       </c>
       <c r="BO6" s="1">
         <v>16.841669</v>
       </c>
       <c r="BP6" s="1">
-        <v>1215.160000</v>
+        <v>1215.1600000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-493.183000</v>
+        <v>-493.18299999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>60640.814322</v>
+        <v>60640.814321999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>16.844671</v>
+        <v>16.844671000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1337.080000</v>
+        <v>1337.08</v>
       </c>
       <c r="BV6" s="1">
-        <v>-690.770000</v>
+        <v>-690.77</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>60651.646920</v>
+        <v>60651.646919999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>16.847680</v>
+        <v>16.84768</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1473.370000</v>
+        <v>1473.37</v>
       </c>
       <c r="CA6" s="1">
-        <v>-900.718000</v>
+        <v>-900.71799999999996</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>60663.152152</v>
+        <v>60663.152152000002</v>
       </c>
       <c r="CD6" s="1">
         <v>16.850876</v>
       </c>
       <c r="CE6" s="1">
-        <v>1826.520000</v>
+        <v>1826.52</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1396.850000</v>
+        <v>-1396.85</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>60490.277996</v>
+        <v>60490.277995999997</v>
       </c>
       <c r="B7" s="1">
-        <v>16.802855</v>
+        <v>16.802855000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>900.265000</v>
+        <v>900.26499999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.433000</v>
+        <v>-198.43299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>60501.006361</v>
       </c>
       <c r="G7" s="1">
-        <v>16.805835</v>
+        <v>16.805834999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>917.722000</v>
+        <v>917.72199999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.253000</v>
+        <v>-168.25299999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>60511.167041</v>
+        <v>60511.167041000001</v>
       </c>
       <c r="L7" s="1">
-        <v>16.808658</v>
+        <v>16.808658000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>939.935000</v>
+        <v>939.93499999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.030000</v>
+        <v>-119.03</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>60521.687990</v>
+        <v>60521.687989999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>16.811580</v>
+        <v>16.811579999999999</v>
       </c>
       <c r="R7" s="1">
-        <v>946.558000</v>
+        <v>946.55799999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.023000</v>
+        <v>-103.023</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>60532.231606</v>
+        <v>60532.231606000001</v>
       </c>
       <c r="V7" s="1">
-        <v>16.814509</v>
+        <v>16.814509000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>953.158000</v>
+        <v>953.15800000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.290800</v>
+        <v>-88.290800000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>60542.685286</v>
       </c>
       <c r="AA7" s="1">
-        <v>16.817413</v>
+        <v>16.817412999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.249000</v>
+        <v>960.24900000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.904200</v>
+        <v>-76.904200000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>60553.555640</v>
+        <v>60553.555639999999</v>
       </c>
       <c r="AF7" s="1">
         <v>16.820432</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.060000</v>
+        <v>965.06</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.877900</v>
+        <v>-74.877899999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>60564.040041</v>
       </c>
       <c r="AK7" s="1">
-        <v>16.823344</v>
+        <v>16.823343999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.298000</v>
+        <v>972.298</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.704400</v>
+        <v>-79.704400000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>60574.723401</v>
+        <v>60574.723401000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>16.826312</v>
+        <v>16.826312000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>980.494000</v>
+        <v>980.49400000000003</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.398300</v>
+        <v>-91.398300000000006</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>60585.712246</v>
+        <v>60585.712246000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>16.829365</v>
+        <v>16.829364999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>990.551000</v>
+        <v>990.55100000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.199000</v>
+        <v>-109.199</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>60596.788896</v>
+        <v>60596.788895999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>16.832441</v>
+        <v>16.832440999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>998.964000</v>
+        <v>998.96400000000006</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.867000</v>
+        <v>-124.867</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>60608.147777</v>
+        <v>60608.147776999998</v>
       </c>
       <c r="BE7" s="1">
         <v>16.835597</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.611000</v>
+        <v>-196.61099999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>60619.262385</v>
+        <v>60619.262385000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>16.838684</v>
+        <v>16.838684000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.950000</v>
+        <v>1105.95</v>
       </c>
       <c r="BL7" s="1">
-        <v>-312.172000</v>
+        <v>-312.17200000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>60630.828174</v>
+        <v>60630.828174000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>16.841897</v>
+        <v>16.841896999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-493.158000</v>
+        <v>-493.15800000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>60641.227206</v>
+        <v>60641.227206000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>16.844785</v>
+        <v>16.844785000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1337.040000</v>
+        <v>1337.04</v>
       </c>
       <c r="BV7" s="1">
-        <v>-690.787000</v>
+        <v>-690.78700000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>60652.102742</v>
+        <v>60652.102742000003</v>
       </c>
       <c r="BY7" s="1">
-        <v>16.847806</v>
+        <v>16.847805999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1473.490000</v>
+        <v>1473.49</v>
       </c>
       <c r="CA7" s="1">
-        <v>-900.649000</v>
+        <v>-900.649</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>60663.643654</v>
       </c>
       <c r="CD7" s="1">
-        <v>16.851012</v>
+        <v>16.851012000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1826.630000</v>
+        <v>1826.63</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1397.090000</v>
+        <v>-1397.09</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>60490.960028</v>
+        <v>60490.960028000001</v>
       </c>
       <c r="B8" s="1">
         <v>16.803044</v>
       </c>
       <c r="C8" s="1">
-        <v>900.446000</v>
+        <v>900.44600000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.321000</v>
+        <v>-198.321</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>60501.350720</v>
+        <v>60501.350720000002</v>
       </c>
       <c r="G8" s="1">
-        <v>16.805931</v>
+        <v>16.805931000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>917.769000</v>
+        <v>917.76900000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.697000</v>
+        <v>-167.697</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>60511.513215</v>
+        <v>60511.513214999999</v>
       </c>
       <c r="L8" s="1">
         <v>16.808754</v>
       </c>
       <c r="M8" s="1">
-        <v>939.922000</v>
+        <v>939.92200000000003</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.064000</v>
+        <v>-119.06399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>60522.033857</v>
+        <v>60522.033857000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>16.811676</v>
+        <v>16.811675999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>946.503000</v>
+        <v>946.50300000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.075000</v>
+        <v>-103.075</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>60532.891778</v>
+        <v>60532.891777999997</v>
       </c>
       <c r="V8" s="1">
-        <v>16.814692</v>
+        <v>16.814692000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>953.177000</v>
+        <v>953.17700000000002</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.353200</v>
+        <v>-88.353200000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>60543.350422</v>
+        <v>60543.350422000003</v>
       </c>
       <c r="AA8" s="1">
-        <v>16.817597</v>
+        <v>16.817596999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.240000</v>
+        <v>960.24</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.888100</v>
+        <v>-76.888099999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>60553.934055</v>
+        <v>60553.934054999998</v>
       </c>
       <c r="AF8" s="1">
-        <v>16.820537</v>
+        <v>16.820537000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.040000</v>
+        <v>965.04</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.825300</v>
+        <v>-74.825299999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>60564.429415</v>
+        <v>60564.429414999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>16.823453</v>
+        <v>16.823453000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.306000</v>
+        <v>972.30600000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.663800</v>
+        <v>-79.663799999999995</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>60575.106779</v>
+        <v>60575.106779000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>16.826419</v>
+        <v>16.826419000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>980.501000</v>
+        <v>980.50099999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.396700</v>
+        <v>-91.396699999999996</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>60586.078321</v>
+        <v>60586.078321000001</v>
       </c>
       <c r="AU8" s="1">
         <v>16.829466</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.564000</v>
+        <v>990.56399999999996</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.197000</v>
+        <v>-109.197</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>60597.170318</v>
+        <v>60597.170317999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>16.832547</v>
+        <v>16.832547000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>998.963000</v>
+        <v>998.96299999999997</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.879000</v>
+        <v>-124.879</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>60608.565439</v>
+        <v>60608.565438999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>16.835713</v>
+        <v>16.835712999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.320000</v>
+        <v>1038.32</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.609000</v>
+        <v>-196.60900000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>60619.595938</v>
+        <v>60619.595937999999</v>
       </c>
       <c r="BJ8" s="1">
         <v>16.838777</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL8" s="1">
-        <v>-312.188000</v>
+        <v>-312.18799999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>60631.240017</v>
+        <v>60631.240016999996</v>
       </c>
       <c r="BO8" s="1">
-        <v>16.842011</v>
+        <v>16.842010999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-493.145000</v>
+        <v>-493.14499999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>60641.642643</v>
+        <v>60641.642642999999</v>
       </c>
       <c r="BT8" s="1">
         <v>16.844901</v>
       </c>
       <c r="BU8" s="1">
-        <v>1337.030000</v>
+        <v>1337.03</v>
       </c>
       <c r="BV8" s="1">
-        <v>-690.749000</v>
+        <v>-690.74900000000002</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>60652.552614</v>
       </c>
       <c r="BY8" s="1">
-        <v>16.847931</v>
+        <v>16.847930999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1473.250000</v>
+        <v>1473.25</v>
       </c>
       <c r="CA8" s="1">
-        <v>-900.744000</v>
+        <v>-900.74400000000003</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>60664.162965</v>
+        <v>60664.162965000003</v>
       </c>
       <c r="CD8" s="1">
         <v>16.851156</v>
       </c>
       <c r="CE8" s="1">
-        <v>1827.680000</v>
+        <v>1827.68</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1397.590000</v>
+        <v>-1397.59</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>60491.300746</v>
+        <v>60491.300746000001</v>
       </c>
       <c r="B9" s="1">
-        <v>16.803139</v>
+        <v>16.803139000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>900.370000</v>
+        <v>900.37</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.354000</v>
+        <v>-198.35400000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>60501.694413</v>
+        <v>60501.694412999997</v>
       </c>
       <c r="G9" s="1">
-        <v>16.806026</v>
+        <v>16.806025999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>917.495000</v>
+        <v>917.495</v>
       </c>
       <c r="I9" s="1">
-        <v>-167.580000</v>
+        <v>-167.58</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>60511.861406</v>
+        <v>60511.861406000004</v>
       </c>
       <c r="L9" s="1">
-        <v>16.808850</v>
+        <v>16.80885</v>
       </c>
       <c r="M9" s="1">
-        <v>939.961000</v>
+        <v>939.96100000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.962000</v>
+        <v>-118.962</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>60522.688609</v>
+        <v>60522.688608999997</v>
       </c>
       <c r="Q9" s="1">
-        <v>16.811858</v>
+        <v>16.811858000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>946.571000</v>
+        <v>946.57100000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.984000</v>
+        <v>-102.98399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>60533.262818</v>
+        <v>60533.262818000003</v>
       </c>
       <c r="V9" s="1">
         <v>16.814795</v>
       </c>
       <c r="W9" s="1">
-        <v>953.139000</v>
+        <v>953.13900000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.292900</v>
+        <v>-88.292900000000003</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>60543.726917</v>
       </c>
       <c r="AA9" s="1">
-        <v>16.817702</v>
+        <v>16.817702000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.270000</v>
+        <v>960.27</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.970800</v>
+        <v>-76.970799999999997</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>60554.284727</v>
+        <v>60554.284726999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>16.820635</v>
+        <v>16.820634999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.827000</v>
+        <v>964.827</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.822400</v>
+        <v>-74.822400000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>60564.775113</v>
+        <v>60564.775113000003</v>
       </c>
       <c r="AK9" s="1">
         <v>16.823549</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.333000</v>
+        <v>972.33299999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.698700</v>
+        <v>-79.698700000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>60575.464923</v>
@@ -2400,13 +2816,13 @@
         <v>16.826518</v>
       </c>
       <c r="AQ9" s="1">
-        <v>980.510000</v>
+        <v>980.51</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.407700</v>
+        <v>-91.407700000000006</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>60586.499398</v>
@@ -2415,58 +2831,58 @@
         <v>16.829583</v>
       </c>
       <c r="AV9" s="1">
-        <v>990.555000</v>
+        <v>990.55499999999995</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.193000</v>
+        <v>-109.193</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>60597.888029</v>
+        <v>60597.888029000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>16.832747</v>
+        <v>16.832747000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>998.973000</v>
+        <v>998.97299999999996</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.859000</v>
+        <v>-124.85899999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>60608.866510</v>
+        <v>60608.86651</v>
       </c>
       <c r="BE9" s="1">
-        <v>16.835796</v>
+        <v>16.835795999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.320000</v>
+        <v>1038.32</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.623000</v>
+        <v>-196.62299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>60619.991280</v>
+        <v>60619.991280000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>16.838886</v>
+        <v>16.838885999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL9" s="1">
-        <v>-312.145000</v>
+        <v>-312.14499999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>60631.637809</v>
@@ -2475,240 +2891,240 @@
         <v>16.842122</v>
       </c>
       <c r="BP9" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-493.148000</v>
+        <v>-493.14800000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>60642.055816</v>
       </c>
       <c r="BT9" s="1">
-        <v>16.845016</v>
+        <v>16.845016000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1337.050000</v>
+        <v>1337.05</v>
       </c>
       <c r="BV9" s="1">
-        <v>-690.878000</v>
+        <v>-690.87800000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>60653.007940</v>
+        <v>60653.007940000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>16.848058</v>
+        <v>16.848058000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1473.350000</v>
+        <v>1473.35</v>
       </c>
       <c r="CA9" s="1">
-        <v>-900.775000</v>
+        <v>-900.77499999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>60664.679798</v>
+        <v>60664.679797999997</v>
       </c>
       <c r="CD9" s="1">
-        <v>16.851300</v>
+        <v>16.851299999999998</v>
       </c>
       <c r="CE9" s="1">
-        <v>1827.280000</v>
+        <v>1827.28</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1397.890000</v>
+        <v>-1397.89</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>60491.644969</v>
+        <v>60491.644969000001</v>
       </c>
       <c r="B10" s="1">
-        <v>16.803235</v>
+        <v>16.803235000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>900.521000</v>
+        <v>900.52099999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.353000</v>
+        <v>-198.35300000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>60502.347676</v>
+        <v>60502.347675999998</v>
       </c>
       <c r="G10" s="1">
-        <v>16.806208</v>
+        <v>16.806208000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>917.122000</v>
+        <v>917.12199999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.047000</v>
+        <v>-168.047</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>60512.511198</v>
       </c>
       <c r="L10" s="1">
-        <v>16.809031</v>
+        <v>16.809031000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>939.894000</v>
+        <v>939.89400000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.197000</v>
+        <v>-119.197</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>60523.080417</v>
+        <v>60523.080416999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>16.811967</v>
+        <v>16.811966999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>946.553000</v>
+        <v>946.553</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.979000</v>
+        <v>-102.979</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>60533.606019</v>
+        <v>60533.606018999999</v>
       </c>
       <c r="V10" s="1">
-        <v>16.814891</v>
+        <v>16.814890999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>953.064000</v>
+        <v>953.06399999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.452600</v>
+        <v>-88.452600000000004</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>60544.078579</v>
+        <v>60544.078579000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>16.817800</v>
+        <v>16.817799999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.298000</v>
+        <v>960.298</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.935200</v>
+        <v>-76.935199999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>60554.624982</v>
+        <v>60554.624982000001</v>
       </c>
       <c r="AF10" s="1">
         <v>16.820729</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.023000</v>
+        <v>965.02300000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.756900</v>
+        <v>-74.756900000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>60565.202703</v>
+        <v>60565.202703000003</v>
       </c>
       <c r="AK10" s="1">
         <v>16.823667</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.290000</v>
+        <v>972.29</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.681700</v>
+        <v>-79.681700000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>60575.897899</v>
+        <v>60575.897899000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>16.826638</v>
+        <v>16.826637999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>980.504000</v>
+        <v>980.50400000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.424400</v>
+        <v>-91.424400000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>60586.806412</v>
+        <v>60586.806411999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>16.829668</v>
+        <v>16.829668000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.550000</v>
+        <v>990.55</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.209000</v>
+        <v>-109.209</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>60598.248127</v>
+        <v>60598.248126999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>16.832847</v>
+        <v>16.832847000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>998.980000</v>
+        <v>998.98</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.875000</v>
+        <v>-124.875</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>60609.226079</v>
       </c>
       <c r="BE10" s="1">
-        <v>16.835896</v>
+        <v>16.835896000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.310000</v>
+        <v>1038.31</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.605000</v>
+        <v>-196.60499999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>60620.368207</v>
@@ -2717,225 +3133,225 @@
         <v>16.838991</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL10" s="1">
-        <v>-312.188000</v>
+        <v>-312.18799999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>60632.061888</v>
+        <v>60632.061887999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>16.842239</v>
+        <v>16.842238999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1215.210000</v>
+        <v>1215.21</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-493.161000</v>
+        <v>-493.161</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>60642.493748</v>
+        <v>60642.493748000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>16.845137</v>
+        <v>16.845137000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1337.010000</v>
+        <v>1337.01</v>
       </c>
       <c r="BV10" s="1">
-        <v>-690.835000</v>
+        <v>-690.83500000000004</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>60653.455332</v>
+        <v>60653.455331999998</v>
       </c>
       <c r="BY10" s="1">
-        <v>16.848182</v>
+        <v>16.848182000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1473.490000</v>
+        <v>1473.49</v>
       </c>
       <c r="CA10" s="1">
-        <v>-900.772000</v>
+        <v>-900.77200000000005</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>60665.241764</v>
+        <v>60665.241763999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>16.851456</v>
+        <v>16.851455999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>1826.830000</v>
+        <v>1826.83</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1396.930000</v>
+        <v>-1396.93</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>60492.302201</v>
+        <v>60492.302200999999</v>
       </c>
       <c r="B11" s="1">
         <v>16.803417</v>
       </c>
       <c r="C11" s="1">
-        <v>900.464000</v>
+        <v>900.46400000000006</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.337000</v>
+        <v>-198.33699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>60502.733048</v>
+        <v>60502.733048000002</v>
       </c>
       <c r="G11" s="1">
-        <v>16.806315</v>
+        <v>16.806315000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>917.733000</v>
+        <v>917.73299999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-167.895000</v>
+        <v>-167.89500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>60512.899533</v>
+        <v>60512.899533000003</v>
       </c>
       <c r="L11" s="1">
-        <v>16.809139</v>
+        <v>16.809138999999998</v>
       </c>
       <c r="M11" s="1">
-        <v>939.966000</v>
+        <v>939.96600000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.033000</v>
+        <v>-119.033</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>60523.428112</v>
+        <v>60523.428112000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>16.812063</v>
+        <v>16.812062999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>946.591000</v>
+        <v>946.59100000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.002000</v>
+        <v>-103.002</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>60533.947798</v>
+        <v>60533.947798000001</v>
       </c>
       <c r="V11" s="1">
         <v>16.814985</v>
       </c>
       <c r="W11" s="1">
-        <v>953.072000</v>
+        <v>953.072</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.304300</v>
+        <v>-88.304299999999998</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>60544.428259</v>
       </c>
       <c r="AA11" s="1">
-        <v>16.817897</v>
+        <v>16.817896999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.264000</v>
+        <v>960.26400000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.872000</v>
+        <v>-76.872</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>60555.046621</v>
+        <v>60555.046621000001</v>
       </c>
       <c r="AF11" s="1">
         <v>16.820846</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.109000</v>
+        <v>965.10900000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.958900</v>
+        <v>-74.9589</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>60565.472985</v>
       </c>
       <c r="AK11" s="1">
-        <v>16.823742</v>
+        <v>16.823741999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.257000</v>
+        <v>972.25699999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.691700</v>
+        <v>-79.691699999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>60576.187066</v>
+        <v>60576.187065999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>16.826719</v>
+        <v>16.826719000000001</v>
       </c>
       <c r="AQ11" s="1">
-        <v>980.499000</v>
+        <v>980.49900000000002</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.402900</v>
+        <v>-91.402900000000002</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>60587.171995</v>
+        <v>60587.171994999997</v>
       </c>
       <c r="AU11" s="1">
-        <v>16.829770</v>
+        <v>16.82977</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.547000</v>
+        <v>990.54700000000003</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.178000</v>
+        <v>-109.178</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>60598.606732</v>
@@ -2944,106 +3360,106 @@
         <v>16.832946</v>
       </c>
       <c r="BA11" s="1">
-        <v>998.953000</v>
+        <v>998.95299999999997</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.882000</v>
+        <v>-124.88200000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>60609.591135</v>
+        <v>60609.591135000002</v>
       </c>
       <c r="BE11" s="1">
         <v>16.835998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.623000</v>
+        <v>-196.62299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>60621.118158</v>
+        <v>60621.118157999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>16.839199</v>
+        <v>16.839199000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL11" s="1">
-        <v>-312.183000</v>
+        <v>-312.18299999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>60632.452241</v>
+        <v>60632.452240999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>16.842348</v>
+        <v>16.842348000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1215.140000</v>
+        <v>1215.1400000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-493.169000</v>
+        <v>-493.16899999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>60642.924273</v>
+        <v>60642.924272999997</v>
       </c>
       <c r="BT11" s="1">
         <v>16.845257</v>
       </c>
       <c r="BU11" s="1">
-        <v>1337.070000</v>
+        <v>1337.07</v>
       </c>
       <c r="BV11" s="1">
-        <v>-690.901000</v>
+        <v>-690.90099999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>60653.914132</v>
+        <v>60653.914131999998</v>
       </c>
       <c r="BY11" s="1">
         <v>16.848309</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1473.290000</v>
+        <v>1473.29</v>
       </c>
       <c r="CA11" s="1">
-        <v>-900.739000</v>
+        <v>-900.73900000000003</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>60666.069123</v>
+        <v>60666.069123000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>16.851686</v>
+        <v>16.851686000000001</v>
       </c>
       <c r="CE11" s="1">
-        <v>1827.540000</v>
+        <v>1827.54</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1397.900000</v>
+        <v>-1397.9</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>60492.665277</v>
       </c>
@@ -3051,375 +3467,375 @@
         <v>16.803518</v>
       </c>
       <c r="C12" s="1">
-        <v>900.449000</v>
+        <v>900.44899999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.203000</v>
+        <v>-198.203</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>60503.080235</v>
+        <v>60503.080235000001</v>
       </c>
       <c r="G12" s="1">
-        <v>16.806411</v>
+        <v>16.806411000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>917.224000</v>
+        <v>917.22400000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-167.649000</v>
+        <v>-167.649</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>60513.242270</v>
+        <v>60513.242270000002</v>
       </c>
       <c r="L12" s="1">
         <v>16.809234</v>
       </c>
       <c r="M12" s="1">
-        <v>939.986000</v>
+        <v>939.98599999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.041000</v>
+        <v>-119.041</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>60523.773855</v>
+        <v>60523.773854999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>16.812159</v>
+        <v>16.812159000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>946.574000</v>
+        <v>946.57399999999996</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.024000</v>
+        <v>-103.024</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>60534.374321</v>
+        <v>60534.374321000003</v>
       </c>
       <c r="V12" s="1">
-        <v>16.815104</v>
+        <v>16.815104000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>952.971000</v>
+        <v>952.971</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.359400</v>
+        <v>-88.359399999999994</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>60544.843379</v>
+        <v>60544.843378999998</v>
       </c>
       <c r="AA12" s="1">
         <v>16.818012</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.162000</v>
+        <v>960.16200000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.955500</v>
+        <v>-76.955500000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>60555.318885</v>
+        <v>60555.318885000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>16.820922</v>
+        <v>16.820921999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.839000</v>
+        <v>964.83900000000006</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.949200</v>
+        <v>-74.949200000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>60565.820183</v>
+        <v>60565.820183000003</v>
       </c>
       <c r="AK12" s="1">
         <v>16.823839</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.269000</v>
+        <v>972.26900000000001</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.673100</v>
+        <v>-79.673100000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>60576.547659</v>
+        <v>60576.547659000003</v>
       </c>
       <c r="AP12" s="1">
         <v>16.826819</v>
       </c>
       <c r="AQ12" s="1">
-        <v>980.519000</v>
+        <v>980.51900000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.407600</v>
+        <v>-91.407600000000002</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>60587.535068</v>
+        <v>60587.535067999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>16.829871</v>
+        <v>16.829871000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.560000</v>
+        <v>990.56</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.194000</v>
+        <v>-109.194</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>60599.321000</v>
+        <v>60599.321000000004</v>
       </c>
       <c r="AZ12" s="1">
-        <v>16.833145</v>
+        <v>16.833144999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>998.987000</v>
+        <v>998.98699999999997</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.890000</v>
+        <v>-124.89</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>60610.312316</v>
+        <v>60610.312316000003</v>
       </c>
       <c r="BE12" s="1">
         <v>16.836198</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.350000</v>
+        <v>1038.3499999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.617000</v>
+        <v>-196.61699999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>60621.495823</v>
+        <v>60621.495822999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>16.839304</v>
+        <v>16.839303999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL12" s="1">
-        <v>-312.171000</v>
+        <v>-312.17099999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>60632.879791</v>
+        <v>60632.879790999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>16.842467</v>
+        <v>16.842466999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-493.169000</v>
+        <v>-493.16899999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>60643.333474</v>
+        <v>60643.333473999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>16.845370</v>
+        <v>16.845369999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1337.030000</v>
+        <v>1337.03</v>
       </c>
       <c r="BV12" s="1">
-        <v>-690.887000</v>
+        <v>-690.88699999999994</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>60654.676514</v>
+        <v>60654.676513999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>16.848521</v>
+        <v>16.848521000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1473.370000</v>
+        <v>1473.37</v>
       </c>
       <c r="CA12" s="1">
-        <v>-900.706000</v>
+        <v>-900.70600000000002</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>60666.315602</v>
+        <v>60666.315602000002</v>
       </c>
       <c r="CD12" s="1">
         <v>16.851754</v>
       </c>
       <c r="CE12" s="1">
-        <v>1828.060000</v>
+        <v>1828.06</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1396.360000</v>
+        <v>-1396.36</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>60492.997561</v>
+        <v>60492.997560999996</v>
       </c>
       <c r="B13" s="1">
-        <v>16.803610</v>
+        <v>16.803609999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>900.384000</v>
+        <v>900.38400000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.390000</v>
+        <v>-198.39</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>60503.422972</v>
       </c>
       <c r="G13" s="1">
-        <v>16.806506</v>
+        <v>16.806505999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>917.544000</v>
+        <v>917.54399999999998</v>
       </c>
       <c r="I13" s="1">
-        <v>-167.551000</v>
+        <v>-167.55099999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>60513.591949</v>
+        <v>60513.591949000001</v>
       </c>
       <c r="L13" s="1">
         <v>16.809331</v>
       </c>
       <c r="M13" s="1">
-        <v>939.862000</v>
+        <v>939.86199999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.058000</v>
+        <v>-119.05800000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>60524.205839</v>
+        <v>60524.205839000002</v>
       </c>
       <c r="Q13" s="1">
         <v>16.812279</v>
       </c>
       <c r="R13" s="1">
-        <v>946.544000</v>
+        <v>946.54399999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.998000</v>
+        <v>-102.998</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>60534.647650</v>
+        <v>60534.647649999999</v>
       </c>
       <c r="V13" s="1">
-        <v>16.815180</v>
+        <v>16.815180000000002</v>
       </c>
       <c r="W13" s="1">
-        <v>953.215000</v>
+        <v>953.21500000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.378400</v>
+        <v>-88.378399999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>60545.127090</v>
+        <v>60545.127090000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>16.818091</v>
+        <v>16.818090999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.207000</v>
+        <v>960.20699999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.925200</v>
+        <v>-76.925200000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>60555.664133</v>
+        <v>60555.664132999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>16.821018</v>
+        <v>16.821017999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.966000</v>
+        <v>964.96600000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.874200</v>
+        <v>-74.874200000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>60566.172354</v>
+        <v>60566.172354000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>16.823937</v>
+        <v>16.823937000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.286000</v>
+        <v>972.28599999999994</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.683600</v>
+        <v>-79.683599999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>60576.907753</v>
@@ -3428,195 +3844,195 @@
         <v>16.826919</v>
       </c>
       <c r="AQ13" s="1">
-        <v>980.518000</v>
+        <v>980.51800000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.414600</v>
+        <v>-91.414599999999993</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>60588.264650</v>
+        <v>60588.264649999997</v>
       </c>
       <c r="AU13" s="1">
         <v>16.830074</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.575000</v>
+        <v>990.57500000000005</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.200000</v>
+        <v>-109.2</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>60599.679579</v>
+        <v>60599.679579000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>16.833244</v>
+        <v>16.833244000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>998.982000</v>
+        <v>998.98199999999997</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.875000</v>
+        <v>-124.875</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>60610.671916</v>
+        <v>60610.671915999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>16.836298</v>
+        <v>16.836297999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.310000</v>
+        <v>1038.31</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.612000</v>
+        <v>-196.61199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>60621.872574</v>
+        <v>60621.872574000001</v>
       </c>
       <c r="BJ13" s="1">
         <v>16.839409</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL13" s="1">
-        <v>-312.194000</v>
+        <v>-312.19400000000002</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>60633.596539</v>
+        <v>60633.596538999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>16.842666</v>
+        <v>16.842666000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-493.164000</v>
+        <v>-493.16399999999999</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>60644.074992</v>
+        <v>60644.074992000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>16.845576</v>
+        <v>16.845576000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1337.090000</v>
+        <v>1337.09</v>
       </c>
       <c r="BV13" s="1">
-        <v>-690.934000</v>
+        <v>-690.93399999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>60654.811926</v>
+        <v>60654.811926000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>16.848559</v>
+        <v>16.848559000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1473.490000</v>
+        <v>1473.49</v>
       </c>
       <c r="CA13" s="1">
-        <v>-900.770000</v>
+        <v>-900.77</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>60666.848341</v>
+        <v>60666.848340999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>16.851902</v>
+        <v>16.851901999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1826.590000</v>
+        <v>1826.59</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1396.800000</v>
+        <v>-1396.8</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>60493.351208</v>
       </c>
       <c r="B14" s="1">
-        <v>16.803709</v>
+        <v>16.803709000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>900.344000</v>
+        <v>900.34400000000005</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.410000</v>
+        <v>-198.41</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>60503.852010</v>
+        <v>60503.852010000002</v>
       </c>
       <c r="G14" s="1">
-        <v>16.806626</v>
+        <v>16.806626000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>917.411000</v>
+        <v>917.41099999999994</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.702000</v>
+        <v>-167.702</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>60514.021981</v>
+        <v>60514.021980999998</v>
       </c>
       <c r="L14" s="1">
-        <v>16.809451</v>
+        <v>16.809450999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>939.903000</v>
+        <v>939.90300000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.998000</v>
+        <v>-118.998</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>60524.472686</v>
+        <v>60524.472686000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>16.812354</v>
+        <v>16.812353999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>946.519000</v>
+        <v>946.51900000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.004000</v>
+        <v>-103.004</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>60534.990394</v>
@@ -3625,889 +4041,889 @@
         <v>16.815275</v>
       </c>
       <c r="W14" s="1">
-        <v>953.101000</v>
+        <v>953.101</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.377800</v>
+        <v>-88.377799999999993</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>60545.474787</v>
+        <v>60545.474786999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>16.818187</v>
+        <v>16.818187000000002</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.241000</v>
+        <v>960.24099999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.883500</v>
+        <v>-76.883499999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>60556.007370</v>
+        <v>60556.007369999999</v>
       </c>
       <c r="AF14" s="1">
         <v>16.821113</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.095000</v>
+        <v>965.09500000000003</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.841000</v>
+        <v>-74.840999999999994</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>60566.866259</v>
+        <v>60566.866259000002</v>
       </c>
       <c r="AK14" s="1">
-        <v>16.824130</v>
+        <v>16.82413</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.276000</v>
+        <v>972.27599999999995</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.675200</v>
+        <v>-79.675200000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>60577.625991</v>
+        <v>60577.625991000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>16.827118</v>
+        <v>16.827117999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>980.504000</v>
+        <v>980.50400000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.412100</v>
+        <v>-91.412099999999995</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>60588.657481</v>
+        <v>60588.657481000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>16.830183</v>
+        <v>16.830183000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.565000</v>
+        <v>990.56500000000005</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.207000</v>
+        <v>-109.20699999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>60600.042651</v>
+        <v>60600.042651000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>16.833345</v>
+        <v>16.833345000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>998.983000</v>
+        <v>998.98299999999995</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.853000</v>
+        <v>-124.85299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>60611.037995</v>
+        <v>60611.037994999999</v>
       </c>
       <c r="BE14" s="1">
         <v>16.836399</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.340000</v>
+        <v>1038.3399999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.622000</v>
+        <v>-196.62200000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>60622.561516</v>
+        <v>60622.561516000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>16.839600</v>
+        <v>16.839600000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.940000</v>
+        <v>1105.94</v>
       </c>
       <c r="BL14" s="1">
-        <v>-312.211000</v>
+        <v>-312.21100000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>60633.705630</v>
+        <v>60633.705629999997</v>
       </c>
       <c r="BO14" s="1">
         <v>16.842696</v>
       </c>
       <c r="BP14" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-493.170000</v>
+        <v>-493.17</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>60644.194529</v>
       </c>
       <c r="BT14" s="1">
-        <v>16.845610</v>
+        <v>16.845610000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1337.040000</v>
+        <v>1337.04</v>
       </c>
       <c r="BV14" s="1">
-        <v>-690.944000</v>
+        <v>-690.94399999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>60655.232538</v>
+        <v>60655.232537999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>16.848676</v>
+        <v>16.848676000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1473.420000</v>
+        <v>1473.42</v>
       </c>
       <c r="CA14" s="1">
-        <v>-900.725000</v>
+        <v>-900.72500000000002</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>60667.388945</v>
+        <v>60667.388944999999</v>
       </c>
       <c r="CD14" s="1">
         <v>16.852052</v>
       </c>
       <c r="CE14" s="1">
-        <v>1828.070000</v>
+        <v>1828.07</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1397.290000</v>
+        <v>-1397.29</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>60493.772820</v>
+        <v>60493.772819999998</v>
       </c>
       <c r="B15" s="1">
-        <v>16.803826</v>
+        <v>16.803826000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>900.396000</v>
+        <v>900.39599999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.400000</v>
+        <v>-198.4</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>60504.117901</v>
+        <v>60504.117900999998</v>
       </c>
       <c r="G15" s="1">
-        <v>16.806699</v>
+        <v>16.806698999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>917.461000</v>
+        <v>917.46100000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.883000</v>
+        <v>-167.88300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>60514.302221</v>
+        <v>60514.302220999998</v>
       </c>
       <c r="L15" s="1">
         <v>16.809528</v>
       </c>
       <c r="M15" s="1">
-        <v>940.042000</v>
+        <v>940.04200000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.937000</v>
+        <v>-118.937</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>60524.821874</v>
+        <v>60524.821874000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>16.812451</v>
+        <v>16.812450999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>946.515000</v>
+        <v>946.51499999999999</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.000000</v>
+        <v>-103</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>60535.332593</v>
+        <v>60535.332592999999</v>
       </c>
       <c r="V15" s="1">
-        <v>16.815370</v>
+        <v>16.815370000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>953.123000</v>
+        <v>953.12300000000005</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.357100</v>
+        <v>-88.357100000000003</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>60545.822979</v>
+        <v>60545.822978999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>16.818284</v>
+        <v>16.818283999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.272000</v>
+        <v>960.27200000000005</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.953600</v>
+        <v>-76.953599999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>60556.694293</v>
       </c>
       <c r="AF15" s="1">
-        <v>16.821304</v>
+        <v>16.821304000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.923000</v>
+        <v>964.923</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.860200</v>
+        <v>-74.860200000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>60567.216423</v>
+        <v>60567.216422999998</v>
       </c>
       <c r="AK15" s="1">
         <v>16.824227</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.294000</v>
+        <v>972.29399999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.677700</v>
+        <v>-79.677700000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>60577.985591</v>
+        <v>60577.985590999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>16.827218</v>
+        <v>16.827217999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>980.495000</v>
+        <v>980.495</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.442900</v>
+        <v>-91.442899999999995</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>60589.023066</v>
+        <v>60589.023066000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>16.830284</v>
+        <v>16.830283999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.543000</v>
+        <v>990.54300000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.185000</v>
+        <v>-109.185</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>60600.720227</v>
+        <v>60600.720226999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>16.833533</v>
+        <v>16.833532999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>998.995000</v>
+        <v>998.995</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.883000</v>
+        <v>-124.883</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>60611.710044</v>
+        <v>60611.710043999999</v>
       </c>
       <c r="BE15" s="1">
         <v>16.836586</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.320000</v>
+        <v>1038.32</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.604000</v>
+        <v>-196.60400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>60622.999020</v>
+        <v>60622.999020000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>16.839722</v>
+        <v>16.839721999999998</v>
       </c>
       <c r="BK15" s="1">
-        <v>1106.010000</v>
+        <v>1106.01</v>
       </c>
       <c r="BL15" s="1">
-        <v>-312.180000</v>
+        <v>-312.18</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>60634.117310</v>
+        <v>60634.117310000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>16.842810</v>
+        <v>16.84281</v>
       </c>
       <c r="BP15" s="1">
-        <v>1215.170000</v>
+        <v>1215.17</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-493.168000</v>
+        <v>-493.16800000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>60644.631503</v>
+        <v>60644.631502999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>16.845731</v>
+        <v>16.845731000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1337.070000</v>
+        <v>1337.07</v>
       </c>
       <c r="BV15" s="1">
-        <v>-690.938000</v>
+        <v>-690.93799999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>60655.657073</v>
+        <v>60655.657073000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>16.848794</v>
+        <v>16.848794000000002</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1473.460000</v>
+        <v>1473.46</v>
       </c>
       <c r="CA15" s="1">
-        <v>-900.705000</v>
+        <v>-900.70500000000004</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>60667.928130</v>
+        <v>60667.92813</v>
       </c>
       <c r="CD15" s="1">
-        <v>16.852202</v>
+        <v>16.852201999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>1827.230000</v>
+        <v>1827.23</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1395.760000</v>
+        <v>-1395.76</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>60494.047094</v>
+        <v>60494.047094000001</v>
       </c>
       <c r="B16" s="1">
-        <v>16.803902</v>
+        <v>16.803902000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>900.374000</v>
+        <v>900.37400000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.326000</v>
+        <v>-198.32599999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>60504.461097</v>
+        <v>60504.461096999999</v>
       </c>
       <c r="G16" s="1">
-        <v>16.806795</v>
+        <v>16.806795000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>917.646000</v>
+        <v>917.64599999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.584000</v>
+        <v>-167.584</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>60514.645947</v>
+        <v>60514.645946999997</v>
       </c>
       <c r="L16" s="1">
-        <v>16.809624</v>
+        <v>16.809623999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>939.913000</v>
+        <v>939.91300000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.041000</v>
+        <v>-119.041</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>60525.170852</v>
+        <v>60525.170852000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>16.812547</v>
+        <v>16.812546999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>946.604000</v>
+        <v>946.60400000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.991000</v>
+        <v>-102.991</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>60536.020576</v>
+        <v>60536.020576000003</v>
       </c>
       <c r="V16" s="1">
-        <v>16.815561</v>
+        <v>16.815560999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>953.090000</v>
+        <v>953.09</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.314600</v>
+        <v>-88.314599999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>60546.520881</v>
+        <v>60546.520880999997</v>
       </c>
       <c r="AA16" s="1">
-        <v>16.818478</v>
+        <v>16.818477999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.313000</v>
+        <v>960.31299999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.900000</v>
+        <v>-76.900000000000006</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>60557.038518</v>
+        <v>60557.038518000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>16.821400</v>
+        <v>16.821400000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.024000</v>
+        <v>965.024</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.893300</v>
+        <v>-74.893299999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>60567.566101</v>
+        <v>60567.566100999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>16.824324</v>
+        <v>16.824324000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.274000</v>
+        <v>972.274</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.676600</v>
+        <v>-79.676599999999993</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>60578.345686</v>
+        <v>60578.345686000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>16.827318</v>
+        <v>16.827318000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.517000</v>
+        <v>980.51700000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.417500</v>
+        <v>-91.417500000000004</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>60589.698584</v>
+        <v>60589.698583999998</v>
       </c>
       <c r="AU16" s="1">
         <v>16.830472</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.576000</v>
+        <v>990.57600000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.208000</v>
+        <v>-109.208</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>60601.145258</v>
+        <v>60601.145257999997</v>
       </c>
       <c r="AZ16" s="1">
         <v>16.833651</v>
       </c>
       <c r="BA16" s="1">
-        <v>998.976000</v>
+        <v>998.976</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.863000</v>
+        <v>-124.863</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>60612.147552</v>
+        <v>60612.147552000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>16.836708</v>
+        <v>16.836708000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.611000</v>
+        <v>-196.61099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>60623.370999</v>
+        <v>60623.370998999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>16.839825</v>
+        <v>16.839825000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL16" s="1">
-        <v>-312.194000</v>
+        <v>-312.19400000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>60634.512126</v>
+        <v>60634.512126000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>16.842920</v>
+        <v>16.842919999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1215.160000</v>
+        <v>1215.1600000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-493.138000</v>
+        <v>-493.13799999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>60645.044178</v>
+        <v>60645.044177999996</v>
       </c>
       <c r="BT16" s="1">
-        <v>16.845846</v>
+        <v>16.845846000000002</v>
       </c>
       <c r="BU16" s="1">
-        <v>1337.040000</v>
+        <v>1337.04</v>
       </c>
       <c r="BV16" s="1">
-        <v>-690.970000</v>
+        <v>-690.97</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>60656.078672</v>
+        <v>60656.078672000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>16.848911</v>
+        <v>16.848911000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1473.350000</v>
+        <v>1473.35</v>
       </c>
       <c r="CA16" s="1">
-        <v>-900.841000</v>
+        <v>-900.84100000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>60668.467249</v>
+        <v>60668.467249000001</v>
       </c>
       <c r="CD16" s="1">
         <v>16.852352</v>
       </c>
       <c r="CE16" s="1">
-        <v>1827.150000</v>
+        <v>1827.15</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1397.700000</v>
+        <v>-1397.7</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>60494.390213</v>
+        <v>60494.390212999999</v>
       </c>
       <c r="B17" s="1">
-        <v>16.803997</v>
+        <v>16.803996999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>900.298000</v>
+        <v>900.298</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.289000</v>
+        <v>-198.28899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>60504.810312</v>
+        <v>60504.810312000001</v>
       </c>
       <c r="G17" s="1">
-        <v>16.806892</v>
+        <v>16.806892000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>917.896000</v>
+        <v>917.89599999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-167.638000</v>
+        <v>-167.63800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>60515.271690</v>
+        <v>60515.271690000001</v>
       </c>
       <c r="L17" s="1">
-        <v>16.809798</v>
+        <v>16.809798000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>939.820000</v>
+        <v>939.82</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.222000</v>
+        <v>-119.22199999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>60525.865948</v>
+        <v>60525.865947999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>16.812741</v>
+        <v>16.812740999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.569000</v>
+        <v>946.56899999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.061000</v>
+        <v>-103.06100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>60536.362814</v>
       </c>
       <c r="V17" s="1">
-        <v>16.815656</v>
+        <v>16.815656000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>953.076000</v>
+        <v>953.07600000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.277000</v>
+        <v>-88.277000000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>60546.869041</v>
+        <v>60546.869040999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>16.818575</v>
+        <v>16.818574999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.188000</v>
+        <v>960.18799999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.006100</v>
+        <v>-77.006100000000004</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>60557.381251</v>
+        <v>60557.381250999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>16.821495</v>
+        <v>16.821494999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.051000</v>
+        <v>965.05100000000004</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.830000</v>
+        <v>-74.83</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>60568.226772</v>
+        <v>60568.226772000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>16.824507</v>
+        <v>16.824507000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.268000</v>
+        <v>972.26800000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.707000</v>
+        <v>-79.706999999999994</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>60579.014758</v>
+        <v>60579.014757999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>16.827504</v>
+        <v>16.827504000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.496000</v>
+        <v>980.49599999999998</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.415000</v>
+        <v>-91.415000000000006</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>60590.150439</v>
+        <v>60590.150438999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>16.830597</v>
+        <v>16.830597000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.561000</v>
+        <v>990.56100000000004</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.213000</v>
+        <v>-109.21299999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>60601.522726</v>
+        <v>60601.522726000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>16.833756</v>
+        <v>16.833756000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>998.954000</v>
+        <v>998.95399999999995</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.851000</v>
+        <v>-124.851</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>60612.506657</v>
+        <v>60612.506656999998</v>
       </c>
       <c r="BE17" s="1">
         <v>16.836807</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.350000</v>
+        <v>1038.3499999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.598000</v>
+        <v>-196.59800000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>60623.751419</v>
@@ -4516,1086 +4932,1086 @@
         <v>16.839931</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL17" s="1">
-        <v>-312.183000</v>
+        <v>-312.18299999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>60634.934751</v>
+        <v>60634.934751000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>16.843037</v>
+        <v>16.843036999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-493.142000</v>
+        <v>-493.142</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>60645.473711</v>
+        <v>60645.473710999999</v>
       </c>
       <c r="BT17" s="1">
         <v>16.845965</v>
       </c>
       <c r="BU17" s="1">
-        <v>1337.120000</v>
+        <v>1337.12</v>
       </c>
       <c r="BV17" s="1">
-        <v>-690.981000</v>
+        <v>-690.98099999999999</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>60656.522131</v>
+        <v>60656.522130999998</v>
       </c>
       <c r="BY17" s="1">
         <v>16.849034</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1473.300000</v>
+        <v>1473.3</v>
       </c>
       <c r="CA17" s="1">
-        <v>-900.681000</v>
+        <v>-900.68100000000004</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>60669.007946</v>
+        <v>60669.007945999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>16.852502</v>
+        <v>16.852502000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1828.020000</v>
+        <v>1828.02</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1396.260000</v>
+        <v>-1396.26</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>60494.731574</v>
+        <v>60494.731573999998</v>
       </c>
       <c r="B18" s="1">
-        <v>16.804092</v>
+        <v>16.804092000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>900.443000</v>
+        <v>900.44299999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.303000</v>
+        <v>-198.303</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>60505.504680</v>
+        <v>60505.504679999998</v>
       </c>
       <c r="G18" s="1">
-        <v>16.807085</v>
+        <v>16.807085000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>917.583000</v>
+        <v>917.58299999999997</v>
       </c>
       <c r="I18" s="1">
-        <v>-167.785000</v>
+        <v>-167.785</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>60515.683578</v>
+        <v>60515.683577999996</v>
       </c>
       <c r="L18" s="1">
-        <v>16.809912</v>
+        <v>16.809912000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>940.063000</v>
+        <v>940.06299999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.183000</v>
+        <v>-119.18300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>60526.218109</v>
+        <v>60526.218109000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>16.812838</v>
+        <v>16.812837999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>946.539000</v>
+        <v>946.53899999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.088000</v>
+        <v>-103.08799999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>60536.707534</v>
+        <v>60536.707534000001</v>
       </c>
       <c r="V18" s="1">
         <v>16.815752</v>
       </c>
       <c r="W18" s="1">
-        <v>953.048000</v>
+        <v>953.048</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.268300</v>
+        <v>-88.268299999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>60547.219714</v>
+        <v>60547.219713999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>16.818672</v>
+        <v>16.818671999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.223000</v>
+        <v>960.22299999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.865700</v>
+        <v>-76.865700000000004</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>60558.043410</v>
+        <v>60558.043409999998</v>
       </c>
       <c r="AF18" s="1">
         <v>16.821679</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.012000</v>
+        <v>965.01199999999994</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.915200</v>
+        <v>-74.915199999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>60568.610703</v>
+        <v>60568.610702999998</v>
       </c>
       <c r="AK18" s="1">
         <v>16.824614</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.269000</v>
+        <v>972.26900000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.687400</v>
+        <v>-79.687399999999997</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>60579.457190</v>
+        <v>60579.457190000001</v>
       </c>
       <c r="AP18" s="1">
         <v>16.827627</v>
       </c>
       <c r="AQ18" s="1">
-        <v>980.510000</v>
+        <v>980.51</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.428900</v>
+        <v>-91.428899999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>60590.517975</v>
+        <v>60590.517975000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>16.830699</v>
+        <v>16.830698999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.561000</v>
+        <v>990.56100000000004</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.217000</v>
+        <v>-109.217</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>60601.882312</v>
+        <v>60601.882312000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>16.833856</v>
+        <v>16.833856000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>998.982000</v>
+        <v>998.98199999999997</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.889000</v>
+        <v>-124.889</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>60612.868698</v>
+        <v>60612.868697999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>16.836908</v>
+        <v>16.836908000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.641000</v>
+        <v>-196.64099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>60624.171077</v>
+        <v>60624.171076999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>16.840048</v>
+        <v>16.840047999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL18" s="1">
-        <v>-312.182000</v>
+        <v>-312.18200000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>60635.333035</v>
+        <v>60635.333035000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>16.843148</v>
+        <v>16.843147999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-493.142000</v>
+        <v>-493.142</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>60645.900270</v>
+        <v>60645.900269999998</v>
       </c>
       <c r="BT18" s="1">
         <v>16.846083</v>
       </c>
       <c r="BU18" s="1">
-        <v>1337.100000</v>
+        <v>1337.1</v>
       </c>
       <c r="BV18" s="1">
-        <v>-690.972000</v>
+        <v>-690.97199999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>60656.944191</v>
+        <v>60656.944191000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>16.849151</v>
+        <v>16.849150999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1473.340000</v>
+        <v>1473.34</v>
       </c>
       <c r="CA18" s="1">
-        <v>-900.672000</v>
+        <v>-900.67200000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>60669.549556</v>
+        <v>60669.549555999998</v>
       </c>
       <c r="CD18" s="1">
         <v>16.852653</v>
       </c>
       <c r="CE18" s="1">
-        <v>1826.560000</v>
+        <v>1826.56</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1396.980000</v>
+        <v>-1396.98</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>60495.413574</v>
+        <v>60495.413573999998</v>
       </c>
       <c r="B19" s="1">
-        <v>16.804282</v>
+        <v>16.804282000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>900.415000</v>
+        <v>900.41499999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.245000</v>
+        <v>-198.245</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>60505.851415</v>
+        <v>60505.851414999997</v>
       </c>
       <c r="G19" s="1">
         <v>16.807181</v>
       </c>
       <c r="H19" s="1">
-        <v>917.760000</v>
+        <v>917.76</v>
       </c>
       <c r="I19" s="1">
-        <v>-167.496000</v>
+        <v>-167.49600000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>60516.029322</v>
+        <v>60516.029322000002</v>
       </c>
       <c r="L19" s="1">
         <v>16.810008</v>
       </c>
       <c r="M19" s="1">
-        <v>940.035000</v>
+        <v>940.03499999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-118.938000</v>
+        <v>-118.938</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>60526.563819</v>
+        <v>60526.563819000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>16.812934</v>
+        <v>16.812933999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>946.541000</v>
+        <v>946.54100000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.052000</v>
+        <v>-103.05200000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>60537.366685</v>
+        <v>60537.366685000001</v>
       </c>
       <c r="V19" s="1">
         <v>16.815935</v>
       </c>
       <c r="W19" s="1">
-        <v>953.050000</v>
+        <v>953.05</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.347100</v>
+        <v>-88.347099999999998</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>60547.924031</v>
+        <v>60547.924031000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>16.818868</v>
+        <v>16.818867999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.265000</v>
+        <v>960.26499999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.894800</v>
+        <v>-76.894800000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>60558.411474</v>
       </c>
       <c r="AF19" s="1">
-        <v>16.821781</v>
+        <v>16.821781000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.023000</v>
+        <v>965.02300000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.883100</v>
+        <v>-74.883099999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>60568.959363</v>
+        <v>60568.959363000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>16.824711</v>
+        <v>16.824711000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.268000</v>
+        <v>972.26800000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.661500</v>
+        <v>-79.661500000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>60579.817813</v>
+        <v>60579.817813000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>16.827727</v>
+        <v>16.827726999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.511000</v>
+        <v>980.51099999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.429100</v>
+        <v>-91.429100000000005</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>60590.880054</v>
+        <v>60590.880054000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>16.830800</v>
+        <v>16.8308</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.556000</v>
+        <v>990.55600000000004</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.181000</v>
+        <v>-109.181</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>60602.311383</v>
       </c>
       <c r="AZ19" s="1">
-        <v>16.833975</v>
+        <v>16.833974999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>998.985000</v>
+        <v>998.98500000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.872000</v>
+        <v>-124.872</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>60613.294266</v>
+        <v>60613.294265999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>16.837026</v>
+        <v>16.837026000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.340000</v>
+        <v>1038.3399999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.626000</v>
+        <v>-196.626</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>60624.524222</v>
       </c>
       <c r="BJ19" s="1">
-        <v>16.840146</v>
+        <v>16.840146000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL19" s="1">
-        <v>-312.177000</v>
+        <v>-312.17700000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>60635.754107</v>
+        <v>60635.754107000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>16.843265</v>
+        <v>16.843264999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-493.192000</v>
+        <v>-493.19200000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>60646.314429</v>
+        <v>60646.314428999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>16.846198</v>
+        <v>16.846198000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1337.070000</v>
+        <v>1337.07</v>
       </c>
       <c r="BV19" s="1">
-        <v>-690.964000</v>
+        <v>-690.96400000000006</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>60657.367784</v>
+        <v>60657.367784000002</v>
       </c>
       <c r="BY19" s="1">
         <v>16.849269</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1473.440000</v>
+        <v>1473.44</v>
       </c>
       <c r="CA19" s="1">
-        <v>-900.765000</v>
+        <v>-900.76499999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>60670.085198</v>
+        <v>60670.085198000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>16.852801</v>
+        <v>16.852800999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1828.100000</v>
+        <v>1828.1</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1397.230000</v>
+        <v>-1397.23</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>60495.757333</v>
+        <v>60495.757333000001</v>
       </c>
       <c r="B20" s="1">
-        <v>16.804377</v>
+        <v>16.804376999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>900.395000</v>
+        <v>900.39499999999998</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.334000</v>
+        <v>-198.334</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>60506.194156</v>
+        <v>60506.194155999998</v>
       </c>
       <c r="G20" s="1">
-        <v>16.807276</v>
+        <v>16.807276000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>917.650000</v>
+        <v>917.65</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.590000</v>
+        <v>-167.59</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>60516.673129</v>
+        <v>60516.673129000003</v>
       </c>
       <c r="L20" s="1">
-        <v>16.810187</v>
+        <v>16.810186999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>940.027000</v>
+        <v>940.02700000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.043000</v>
+        <v>-119.04300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>60527.223994</v>
       </c>
       <c r="Q20" s="1">
-        <v>16.813118</v>
+        <v>16.813117999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>946.587000</v>
+        <v>946.58699999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.025000</v>
+        <v>-103.02500000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>60537.736206</v>
+        <v>60537.736206000001</v>
       </c>
       <c r="V20" s="1">
-        <v>16.816038</v>
+        <v>16.816037999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>953.120000</v>
+        <v>953.12</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.447300</v>
+        <v>-88.447299999999998</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>60548.261806</v>
+        <v>60548.261806000002</v>
       </c>
       <c r="AA20" s="1">
-        <v>16.818962</v>
+        <v>16.818961999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.217000</v>
+        <v>960.21699999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.863700</v>
+        <v>-76.863699999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>60558.755200</v>
+        <v>60558.7552</v>
       </c>
       <c r="AF20" s="1">
         <v>16.821876</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.064000</v>
+        <v>965.06399999999996</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.798500</v>
+        <v>-74.798500000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>60569.310036</v>
+        <v>60569.310036000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>16.824808</v>
+        <v>16.824808000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.285000</v>
+        <v>972.28499999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.681300</v>
+        <v>-79.681299999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>60580.177877</v>
+        <v>60580.177877000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>16.827827</v>
+        <v>16.827826999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.523000</v>
+        <v>980.52300000000002</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.420000</v>
+        <v>-91.42</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>60591.313558</v>
+        <v>60591.313558000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>16.830920</v>
+        <v>16.830919999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.555000</v>
+        <v>990.55499999999995</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.191000</v>
+        <v>-109.191</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>60602.600023</v>
+        <v>60602.600022999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>16.834056</v>
       </c>
       <c r="BA20" s="1">
-        <v>998.968000</v>
+        <v>998.96799999999996</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.861000</v>
+        <v>-124.861</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>60613.594840</v>
+        <v>60613.594839999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>16.837110</v>
+        <v>16.837109999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.642000</v>
+        <v>-196.642</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>60624.899161</v>
+        <v>60624.899161000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>16.840250</v>
+        <v>16.840250000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.970000</v>
+        <v>1105.97</v>
       </c>
       <c r="BL20" s="1">
-        <v>-312.174000</v>
+        <v>-312.17399999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>60636.152395</v>
+        <v>60636.152394999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>16.843376</v>
+        <v>16.843375999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1215.180000</v>
+        <v>1215.18</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-493.174000</v>
+        <v>-493.17399999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>60647.071822</v>
+        <v>60647.071821999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>16.846409</v>
+        <v>16.846409000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1337.110000</v>
+        <v>1337.11</v>
       </c>
       <c r="BV20" s="1">
-        <v>-691.036000</v>
+        <v>-691.03599999999994</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>60657.813710</v>
+        <v>60657.813710000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>16.849393</v>
+        <v>16.849392999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1473.290000</v>
+        <v>1473.29</v>
       </c>
       <c r="CA20" s="1">
-        <v>-900.611000</v>
+        <v>-900.61099999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>60670.628353</v>
       </c>
       <c r="CD20" s="1">
-        <v>16.852952</v>
+        <v>16.852951999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>1827.050000</v>
+        <v>1827.05</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1395.900000</v>
+        <v>-1395.9</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>60496.097061</v>
       </c>
       <c r="B21" s="1">
-        <v>16.804471</v>
+        <v>16.804470999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>900.430000</v>
+        <v>900.43</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.340000</v>
+        <v>-198.34</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>60506.847845</v>
+        <v>60506.847844999997</v>
       </c>
       <c r="G21" s="1">
         <v>16.807458</v>
       </c>
       <c r="H21" s="1">
-        <v>917.061000</v>
+        <v>917.06100000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.623000</v>
+        <v>-167.62299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>60517.066423</v>
+        <v>60517.066422999997</v>
       </c>
       <c r="L21" s="1">
-        <v>16.810296</v>
+        <v>16.810296000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>939.881000</v>
+        <v>939.88099999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.121000</v>
+        <v>-119.121</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>60527.612394</v>
+        <v>60527.612394000003</v>
       </c>
       <c r="Q21" s="1">
         <v>16.813226</v>
       </c>
       <c r="R21" s="1">
-        <v>946.554000</v>
+        <v>946.55399999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.013000</v>
+        <v>-103.01300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>60538.079964</v>
+        <v>60538.079963999997</v>
       </c>
       <c r="V21" s="1">
-        <v>16.816133</v>
+        <v>16.816133000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>953.152000</v>
+        <v>953.15200000000004</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.384200</v>
+        <v>-88.384200000000007</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>60548.612020</v>
+        <v>60548.61202</v>
       </c>
       <c r="AA21" s="1">
-        <v>16.819059</v>
+        <v>16.819058999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.215000</v>
+        <v>960.21500000000003</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.890900</v>
+        <v>-76.890900000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>60559.100384</v>
+        <v>60559.100383999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>16.821972</v>
+        <v>16.821971999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.158000</v>
+        <v>965.15800000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.872700</v>
+        <v>-74.872699999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>60569.733624</v>
       </c>
       <c r="AK21" s="1">
-        <v>16.824926</v>
+        <v>16.824926000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.288000</v>
+        <v>972.28800000000001</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.671700</v>
+        <v>-79.671700000000001</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>60580.621308</v>
+        <v>60580.621308000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>16.827950</v>
+        <v>16.827950000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>980.531000</v>
+        <v>980.53099999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.410600</v>
+        <v>-91.410600000000002</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>60591.611157</v>
+        <v>60591.611156999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>16.831003</v>
+        <v>16.831002999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.559000</v>
+        <v>990.55899999999997</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.198000</v>
+        <v>-109.19799999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>60602.958165</v>
+        <v>60602.958164999996</v>
       </c>
       <c r="AZ21" s="1">
-        <v>16.834155</v>
+        <v>16.834154999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>998.984000</v>
+        <v>998.98400000000004</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.861000</v>
+        <v>-124.861</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>60613.973784</v>
+        <v>60613.973784000002</v>
       </c>
       <c r="BE21" s="1">
         <v>16.837215</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.340000</v>
+        <v>1038.3399999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.613000</v>
+        <v>-196.613</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>60625.277646</v>
+        <v>60625.277646000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>16.840355</v>
+        <v>16.840354999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.960000</v>
+        <v>1105.96</v>
       </c>
       <c r="BL21" s="1">
-        <v>-312.187000</v>
+        <v>-312.18700000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>60636.580472</v>
+        <v>60636.580472000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>16.843495</v>
+        <v>16.843495000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-493.176000</v>
+        <v>-493.17599999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>60647.183420</v>
+        <v>60647.183420000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>16.846440</v>
+        <v>16.846440000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1337.060000</v>
+        <v>1337.06</v>
       </c>
       <c r="BV21" s="1">
-        <v>-691.019000</v>
+        <v>-691.01900000000001</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>60658.246191</v>
+        <v>60658.246190999998</v>
       </c>
       <c r="BY21" s="1">
-        <v>16.849513</v>
+        <v>16.849513000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1473.350000</v>
+        <v>1473.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-900.764000</v>
+        <v>-900.76400000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>60671.167469</v>
@@ -5604,891 +6020,891 @@
         <v>16.853102</v>
       </c>
       <c r="CE21" s="1">
-        <v>1827.230000</v>
+        <v>1827.23</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1397.710000</v>
+        <v>-1397.71</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>60496.742356</v>
+        <v>60496.742356000002</v>
       </c>
       <c r="B22" s="1">
         <v>16.804651</v>
       </c>
       <c r="C22" s="1">
-        <v>900.431000</v>
+        <v>900.43100000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.298000</v>
+        <v>-198.298</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>60507.225797</v>
+        <v>60507.225796999999</v>
       </c>
       <c r="G22" s="1">
-        <v>16.807563</v>
+        <v>16.807562999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>917.540000</v>
+        <v>917.54</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.611000</v>
+        <v>-167.61099999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>60517.413127</v>
       </c>
       <c r="L22" s="1">
-        <v>16.810393</v>
+        <v>16.810393000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>939.861000</v>
+        <v>939.86099999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.071000</v>
+        <v>-119.071</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>60527.960555</v>
+        <v>60527.960554999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>16.813322</v>
+        <v>16.813321999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>946.555000</v>
+        <v>946.55499999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.029000</v>
+        <v>-103.029</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>60538.428125</v>
+        <v>60538.428124999999</v>
       </c>
       <c r="V22" s="1">
-        <v>16.816230</v>
+        <v>16.816230000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>953.087000</v>
+        <v>953.08699999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.347800</v>
+        <v>-88.347800000000007</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>60549.034592</v>
+        <v>60549.034592000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>16.819176</v>
+        <v>16.819175999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.328000</v>
+        <v>960.32799999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.914700</v>
+        <v>-76.914699999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>60559.523473</v>
+        <v>60559.523473000001</v>
       </c>
       <c r="AF22" s="1">
-        <v>16.822090</v>
+        <v>16.822089999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.940000</v>
+        <v>964.94</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.726900</v>
+        <v>-74.726900000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>60570.013372</v>
+        <v>60570.013372000001</v>
       </c>
       <c r="AK22" s="1">
         <v>16.825004</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.280000</v>
+        <v>972.28</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.697200</v>
+        <v>-79.697199999999995</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>60580.898069</v>
+        <v>60580.898069000003</v>
       </c>
       <c r="AP22" s="1">
-        <v>16.828027</v>
+        <v>16.828026999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.523000</v>
+        <v>980.52300000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.431500</v>
+        <v>-91.4315</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>60591.973732</v>
+        <v>60591.973731999999</v>
       </c>
       <c r="AU22" s="1">
         <v>16.831104</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.585000</v>
+        <v>990.58500000000004</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.207000</v>
+        <v>-109.20699999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>60603.317270</v>
+        <v>60603.31727</v>
       </c>
       <c r="AZ22" s="1">
-        <v>16.834255</v>
+        <v>16.834254999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>998.999000</v>
+        <v>998.99900000000002</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.872000</v>
+        <v>-124.872</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>60614.676616</v>
+        <v>60614.676615999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>16.837410</v>
+        <v>16.837409999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.340000</v>
+        <v>1038.3399999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.630000</v>
+        <v>-196.63</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>60626.028058</v>
+        <v>60626.028058000004</v>
       </c>
       <c r="BJ22" s="1">
         <v>16.840563</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL22" s="1">
-        <v>-312.186000</v>
+        <v>-312.18599999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>60636.969801</v>
+        <v>60636.969800999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>16.843603</v>
+        <v>16.843603000000002</v>
       </c>
       <c r="BP22" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-493.159000</v>
+        <v>-493.15899999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>60647.612459</v>
+        <v>60647.612459000004</v>
       </c>
       <c r="BT22" s="1">
-        <v>16.846559</v>
+        <v>16.846558999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1337.130000</v>
+        <v>1337.13</v>
       </c>
       <c r="BV22" s="1">
-        <v>-691.001000</v>
+        <v>-691.00099999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>60658.665309</v>
+        <v>60658.665309000004</v>
       </c>
       <c r="BY22" s="1">
         <v>16.849629</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1473.380000</v>
+        <v>1473.38</v>
       </c>
       <c r="CA22" s="1">
-        <v>-900.584000</v>
+        <v>-900.58399999999995</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>60672.021580</v>
+        <v>60672.021580000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>16.853339</v>
+        <v>16.853338999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1826.460000</v>
+        <v>1826.46</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1396.530000</v>
+        <v>-1396.53</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>60497.130723</v>
+        <v>60497.130723000002</v>
       </c>
       <c r="B23" s="1">
-        <v>16.804759</v>
+        <v>16.804759000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>900.458000</v>
+        <v>900.45799999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.226000</v>
+        <v>-198.226</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>60507.569526</v>
+        <v>60507.569525999999</v>
       </c>
       <c r="G23" s="1">
         <v>16.807658</v>
       </c>
       <c r="H23" s="1">
-        <v>918.073000</v>
+        <v>918.07299999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.622000</v>
+        <v>-167.62200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>60517.758343</v>
+        <v>60517.758343000001</v>
       </c>
       <c r="L23" s="1">
-        <v>16.810488</v>
+        <v>16.810487999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>939.985000</v>
+        <v>939.98500000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-118.970000</v>
+        <v>-118.97</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>60528.309274</v>
+        <v>60528.309273999999</v>
       </c>
       <c r="Q23" s="1">
         <v>16.813419</v>
       </c>
       <c r="R23" s="1">
-        <v>946.560000</v>
+        <v>946.56</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.047000</v>
+        <v>-103.047</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>60538.852203</v>
+        <v>60538.852203000002</v>
       </c>
       <c r="V23" s="1">
-        <v>16.816348</v>
+        <v>16.816348000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>953.043000</v>
+        <v>953.04300000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.405200</v>
+        <v>-88.405199999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>60549.328733</v>
+        <v>60549.328733000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>16.819258</v>
+        <v>16.819258000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.329000</v>
+        <v>960.32899999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.938400</v>
+        <v>-76.938400000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>60559.811184</v>
+        <v>60559.811183999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>16.822170</v>
+        <v>16.82217</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.910000</v>
+        <v>964.91</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.728200</v>
+        <v>-74.728200000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>60570.363537</v>
+        <v>60570.363536999997</v>
       </c>
       <c r="AK23" s="1">
         <v>16.825101</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.271000</v>
+        <v>972.27099999999996</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.678100</v>
+        <v>-79.678100000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>60581.256179</v>
+        <v>60581.256179000004</v>
       </c>
       <c r="AP23" s="1">
-        <v>16.828127</v>
+        <v>16.828126999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>980.518000</v>
+        <v>980.51800000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.449500</v>
+        <v>-91.4495</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>60592.337300</v>
+        <v>60592.337299999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>16.831205</v>
+        <v>16.831205000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.573000</v>
+        <v>990.57299999999998</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.201000</v>
+        <v>-109.20099999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>60604.037925</v>
+        <v>60604.037924999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>16.834455</v>
+        <v>16.834454999999998</v>
       </c>
       <c r="BA23" s="1">
-        <v>998.973000</v>
+        <v>998.97299999999996</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.870000</v>
+        <v>-124.87</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>60615.034760</v>
+        <v>60615.034760000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>16.837510</v>
+        <v>16.837510000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.622000</v>
+        <v>-196.62200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>60626.405015</v>
+        <v>60626.405014999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>16.840668</v>
+        <v>16.840668000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL23" s="1">
-        <v>-312.175000</v>
+        <v>-312.17500000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>60637.382969</v>
+        <v>60637.382968999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>16.843717</v>
+        <v>16.843717000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-493.161000</v>
+        <v>-493.161</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>60648.326202</v>
+        <v>60648.326201999997</v>
       </c>
       <c r="BT23" s="1">
         <v>16.846757</v>
       </c>
       <c r="BU23" s="1">
-        <v>1337.150000</v>
+        <v>1337.15</v>
       </c>
       <c r="BV23" s="1">
-        <v>-691.052000</v>
+        <v>-691.05200000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>60659.413772</v>
       </c>
       <c r="BY23" s="1">
-        <v>16.849837</v>
+        <v>16.849837000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1473.440000</v>
+        <v>1473.44</v>
       </c>
       <c r="CA23" s="1">
-        <v>-900.725000</v>
+        <v>-900.72500000000002</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>60672.247294</v>
+        <v>60672.247294000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>16.853402</v>
+        <v>16.853401999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1826.730000</v>
+        <v>1826.73</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1396.360000</v>
+        <v>-1396.36</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>60497.468499</v>
+        <v>60497.468499000002</v>
       </c>
       <c r="B24" s="1">
         <v>16.804852</v>
       </c>
       <c r="C24" s="1">
-        <v>900.362000</v>
+        <v>900.36199999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.351000</v>
+        <v>-198.351</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>60507.914244</v>
       </c>
       <c r="G24" s="1">
-        <v>16.807754</v>
+        <v>16.807753999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>917.522000</v>
+        <v>917.52200000000005</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.649000</v>
+        <v>-167.649</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>60518.183910</v>
+        <v>60518.18391</v>
       </c>
       <c r="L24" s="1">
-        <v>16.810607</v>
+        <v>16.810607000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>939.927000</v>
+        <v>939.92700000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.038000</v>
+        <v>-119.038</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>60528.734313</v>
+        <v>60528.734313000001</v>
       </c>
       <c r="Q24" s="1">
         <v>16.813537</v>
       </c>
       <c r="R24" s="1">
-        <v>946.529000</v>
+        <v>946.529</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.027000</v>
+        <v>-103.027</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>60539.131451</v>
+        <v>60539.131451000001</v>
       </c>
       <c r="V24" s="1">
-        <v>16.816425</v>
+        <v>16.816424999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>953.075000</v>
+        <v>953.07500000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.342100</v>
+        <v>-88.342100000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>60549.676397</v>
+        <v>60549.676397000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>16.819355</v>
+        <v>16.819355000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.299000</v>
+        <v>960.29899999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.898300</v>
+        <v>-76.898300000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>60560.154911</v>
+        <v>60560.154910999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>16.822265</v>
+        <v>16.822265000000002</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.930000</v>
+        <v>964.93</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.649500</v>
+        <v>-74.649500000000003</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>60570.710738</v>
+        <v>60570.710738000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>16.825197</v>
+        <v>16.825196999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.268000</v>
+        <v>972.26800000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.672000</v>
+        <v>-79.671999999999997</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>60581.976866</v>
+        <v>60581.976865999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>16.828327</v>
+        <v>16.828327000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>980.536000</v>
+        <v>980.53599999999994</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.421200</v>
+        <v>-91.421199999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>60593.075349</v>
+        <v>60593.075348999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>16.831410</v>
+        <v>16.831410000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.569000</v>
+        <v>990.56899999999996</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.194000</v>
+        <v>-109.194</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>60604.415912</v>
+        <v>60604.415911999997</v>
       </c>
       <c r="AZ24" s="1">
-        <v>16.834560</v>
+        <v>16.83456</v>
       </c>
       <c r="BA24" s="1">
-        <v>998.986000</v>
+        <v>998.98599999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.873000</v>
+        <v>-124.873</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>60615.396310</v>
+        <v>60615.396309999996</v>
       </c>
       <c r="BE24" s="1">
-        <v>16.837610</v>
+        <v>16.837610000000002</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.609000</v>
+        <v>-196.60900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>60626.779032</v>
+        <v>60626.779031999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>16.840772</v>
+        <v>16.840772000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.990000</v>
+        <v>1105.99</v>
       </c>
       <c r="BL24" s="1">
-        <v>-312.185000</v>
+        <v>-312.185</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>60638.100681</v>
+        <v>60638.100681000004</v>
       </c>
       <c r="BO24" s="1">
-        <v>16.843917</v>
+        <v>16.843917000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-493.172000</v>
+        <v>-493.17200000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>60648.454666</v>
+        <v>60648.454665999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>16.846793</v>
+        <v>16.846793000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1337.160000</v>
+        <v>1337.16</v>
       </c>
       <c r="BV24" s="1">
-        <v>-691.045000</v>
+        <v>-691.04499999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>60659.558805</v>
+        <v>60659.558805000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>16.849877</v>
+        <v>16.849876999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1473.420000</v>
+        <v>1473.42</v>
       </c>
       <c r="CA24" s="1">
-        <v>-900.768000</v>
+        <v>-900.76800000000003</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>60672.764588</v>
+        <v>60672.764587999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>16.853546</v>
+        <v>16.853546000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1826.760000</v>
+        <v>1826.76</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1397.770000</v>
+        <v>-1397.77</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>60497.891091</v>
+        <v>60497.891090999998</v>
       </c>
       <c r="B25" s="1">
-        <v>16.804970</v>
+        <v>16.804970000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>900.250000</v>
+        <v>900.25</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.297000</v>
+        <v>-198.297</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>60508.344771</v>
+        <v>60508.344770999996</v>
       </c>
       <c r="G25" s="1">
-        <v>16.807874</v>
+        <v>16.807874000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>917.656000</v>
+        <v>917.65599999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.493000</v>
+        <v>-167.49299999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>60518.451254</v>
       </c>
       <c r="L25" s="1">
-        <v>16.810681</v>
+        <v>16.810680999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>940.007000</v>
+        <v>940.00699999999995</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.154000</v>
+        <v>-119.154</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>60529.014584</v>
+        <v>60529.014583999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>16.813615</v>
+        <v>16.813614999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>946.500000</v>
+        <v>946.5</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.030000</v>
+        <v>-103.03</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>60539.480138</v>
+        <v>60539.480137999999</v>
       </c>
       <c r="V25" s="1">
-        <v>16.816522</v>
+        <v>16.816521999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>953.078000</v>
+        <v>953.07799999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.337400</v>
+        <v>-88.337400000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>60550.023611</v>
+        <v>60550.023610999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>16.819451</v>
+        <v>16.819451000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.338000</v>
+        <v>960.33799999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.915800</v>
+        <v>-76.915800000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>60560.501088</v>
+        <v>60560.501087999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>16.822361</v>
+        <v>16.822361000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.924000</v>
+        <v>964.92399999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.788000</v>
+        <v>-74.787999999999997</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>60571.406163</v>
@@ -6497,330 +6913,330 @@
         <v>16.825391</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.273000</v>
+        <v>972.27300000000002</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.692700</v>
+        <v>-79.692700000000002</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>60582.365246</v>
+        <v>60582.365246000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>16.828435</v>
+        <v>16.828434999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.521000</v>
+        <v>980.52099999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.414900</v>
+        <v>-91.414900000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>60593.460243</v>
+        <v>60593.460243000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>16.831517</v>
+        <v>16.831517000000002</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.563000</v>
+        <v>990.56299999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.215000</v>
+        <v>-109.215</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>60604.790388</v>
+        <v>60604.790388000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>16.834664</v>
       </c>
       <c r="BA25" s="1">
-        <v>998.980000</v>
+        <v>998.98</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.891000</v>
+        <v>-124.89100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>60616.076821</v>
+        <v>60616.076821000002</v>
       </c>
       <c r="BE25" s="1">
         <v>16.837799</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.340000</v>
+        <v>1038.3399999999999</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.616000</v>
+        <v>-196.61600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>60627.468934</v>
+        <v>60627.468933999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>16.840964</v>
       </c>
       <c r="BK25" s="1">
-        <v>1106.010000</v>
+        <v>1106.01</v>
       </c>
       <c r="BL25" s="1">
-        <v>-312.169000</v>
+        <v>-312.16899999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>60638.209342</v>
+        <v>60638.209342000002</v>
       </c>
       <c r="BO25" s="1">
         <v>16.843947</v>
       </c>
       <c r="BP25" s="1">
-        <v>1215.190000</v>
+        <v>1215.19</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-493.172000</v>
+        <v>-493.17200000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>60648.895151</v>
+        <v>60648.895150999997</v>
       </c>
       <c r="BT25" s="1">
-        <v>16.846915</v>
+        <v>16.846914999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1337.170000</v>
+        <v>1337.17</v>
       </c>
       <c r="BV25" s="1">
-        <v>-691.071000</v>
+        <v>-691.07100000000003</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>60659.983675</v>
+        <v>60659.983675000003</v>
       </c>
       <c r="BY25" s="1">
         <v>16.849995</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1473.290000</v>
+        <v>1473.29</v>
       </c>
       <c r="CA25" s="1">
-        <v>-900.608000</v>
+        <v>-900.60799999999995</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>60673.283402</v>
+        <v>60673.283402000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>16.853690</v>
+        <v>16.85369</v>
       </c>
       <c r="CE25" s="1">
-        <v>1826.660000</v>
+        <v>1826.66</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1396.960000</v>
+        <v>-1396.96</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>60498.517537</v>
       </c>
       <c r="B26" s="1">
-        <v>16.805144</v>
+        <v>16.805143999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>900.310000</v>
+        <v>900.31</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.286000</v>
+        <v>-198.286</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>60508.608675</v>
+        <v>60508.608675000003</v>
       </c>
       <c r="G26" s="1">
-        <v>16.807947</v>
+        <v>16.807946999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>917.493000</v>
+        <v>917.49300000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.535000</v>
+        <v>-167.535</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>60518.795974</v>
+        <v>60518.795974000001</v>
       </c>
       <c r="L26" s="1">
-        <v>16.810777</v>
+        <v>16.810777000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>940.027000</v>
+        <v>940.02700000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-118.940000</v>
+        <v>-118.94</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>60529.364728</v>
       </c>
       <c r="Q26" s="1">
-        <v>16.813712</v>
+        <v>16.813711999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>946.539000</v>
+        <v>946.53899999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.020000</v>
+        <v>-103.02</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>60539.819557</v>
+        <v>60539.819557000003</v>
       </c>
       <c r="V26" s="1">
-        <v>16.816617</v>
+        <v>16.816617000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>953.160000</v>
+        <v>953.16</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.399500</v>
+        <v>-88.399500000000003</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>60550.722459</v>
+        <v>60550.722458999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>16.819645</v>
+        <v>16.819645000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.283000</v>
+        <v>960.28300000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.866400</v>
+        <v>-76.866399999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>60561.184584</v>
+        <v>60561.184584000002</v>
       </c>
       <c r="AF26" s="1">
-        <v>16.822551</v>
+        <v>16.822551000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.875000</v>
+        <v>964.875</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.821900</v>
+        <v>-74.821899999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>60571.756305</v>
+        <v>60571.756305000003</v>
       </c>
       <c r="AK26" s="1">
         <v>16.825488</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.273000</v>
+        <v>972.27300000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.714400</v>
+        <v>-79.714399999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>60582.725329</v>
+        <v>60582.725329000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>16.828535</v>
+        <v>16.828534999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>980.538000</v>
+        <v>980.53800000000001</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.443300</v>
+        <v>-91.443299999999994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>60593.819842</v>
+        <v>60593.819841999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>16.831617</v>
+        <v>16.831617000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.580000</v>
+        <v>990.58</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.196000</v>
+        <v>-109.196</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>60605.466403</v>
+        <v>60605.466402999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>16.834852</v>
+        <v>16.834852000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>998.965000</v>
+        <v>998.96500000000003</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.878000</v>
+        <v>-124.878</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>60616.501893</v>
+        <v>60616.501893000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>16.837917</v>
+        <v>16.837917000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.330000</v>
+        <v>1038.33</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.616000</v>
+        <v>-196.61600000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>60627.904917</v>
@@ -6829,75 +7245,76 @@
         <v>16.841085</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.980000</v>
+        <v>1105.98</v>
       </c>
       <c r="BL26" s="1">
-        <v>-312.224000</v>
+        <v>-312.22399999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>60638.631909</v>
+        <v>60638.631909000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>16.844064</v>
+        <v>16.844063999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1215.200000</v>
+        <v>1215.2</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-493.159000</v>
+        <v>-493.15899999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>60649.321674</v>
+        <v>60649.321673999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>16.847034</v>
+        <v>16.847034000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1337.170000</v>
+        <v>1337.17</v>
       </c>
       <c r="BV26" s="1">
-        <v>-691.051000</v>
+        <v>-691.05100000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>60660.398332</v>
+        <v>60660.398331999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>16.850111</v>
+        <v>16.850110999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1473.420000</v>
+        <v>1473.42</v>
       </c>
       <c r="CA26" s="1">
-        <v>-900.729000</v>
+        <v>-900.72900000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>60673.846858</v>
+        <v>60673.846857999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>16.853846</v>
+        <v>16.853846000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1826.750000</v>
+        <v>1826.75</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1396.230000</v>
+        <v>-1396.23</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>